--- a/Documents/Gantt Chart.xlsx
+++ b/Documents/Gantt Chart.xlsx
@@ -26,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$5</definedName>
     <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$5</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Project Planner</t>
   </si>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>Repolishing Project</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -645,6 +642,36 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -669,6 +696,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -693,40 +723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1140,8 +1137,8 @@
   </sheetPr>
   <dimension ref="B1:DA30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="BA26" sqref="BA26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1164,13 +1161,13 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="2:105" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1178,66 +1175,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="13"/>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="14"/>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="29"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="31"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="42"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="34"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="45"/>
       <c r="AH2" s="17"/>
-      <c r="AI2" s="19" t="s">
+      <c r="AI2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
     </row>
     <row r="3" spans="2:105" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="36" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -1264,146 +1261,146 @@
       <c r="AA3" s="8"/>
     </row>
     <row r="4" spans="2:105" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="37"/>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="39" t="s">
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39" t="s">
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39" t="s">
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39" t="s">
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="28"/>
+      <c r="AP4" s="28"/>
+      <c r="AQ4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39" t="s">
+      <c r="AR4" s="28"/>
+      <c r="AS4" s="28"/>
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39" t="s">
+      <c r="AY4" s="28"/>
+      <c r="AZ4" s="28"/>
+      <c r="BA4" s="28"/>
+      <c r="BB4" s="28"/>
+      <c r="BC4" s="28"/>
+      <c r="BD4" s="28"/>
+      <c r="BE4" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="AY4" s="39"/>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39"/>
-      <c r="BE4" s="39" t="s">
+      <c r="BF4" s="28"/>
+      <c r="BG4" s="28"/>
+      <c r="BH4" s="28"/>
+      <c r="BI4" s="28"/>
+      <c r="BJ4" s="28"/>
+      <c r="BK4" s="28"/>
+      <c r="BL4" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="39"/>
-      <c r="BK4" s="39"/>
-      <c r="BL4" s="39" t="s">
+      <c r="BM4" s="28"/>
+      <c r="BN4" s="28"/>
+      <c r="BO4" s="28"/>
+      <c r="BP4" s="28"/>
+      <c r="BQ4" s="28"/>
+      <c r="BR4" s="28"/>
+      <c r="BS4" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="BM4" s="39"/>
-      <c r="BN4" s="39"/>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="39"/>
-      <c r="BQ4" s="39"/>
-      <c r="BR4" s="39"/>
-      <c r="BS4" s="39" t="s">
+      <c r="BT4" s="28"/>
+      <c r="BU4" s="28"/>
+      <c r="BV4" s="28"/>
+      <c r="BW4" s="28"/>
+      <c r="BX4" s="28"/>
+      <c r="BY4" s="28"/>
+      <c r="BZ4" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="BT4" s="39"/>
-      <c r="BU4" s="39"/>
-      <c r="BV4" s="39"/>
-      <c r="BW4" s="39"/>
-      <c r="BX4" s="39"/>
-      <c r="BY4" s="39"/>
-      <c r="BZ4" s="39" t="s">
+      <c r="CA4" s="28"/>
+      <c r="CB4" s="28"/>
+      <c r="CC4" s="28"/>
+      <c r="CD4" s="28"/>
+      <c r="CE4" s="28"/>
+      <c r="CF4" s="28"/>
+      <c r="CG4" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="CA4" s="39"/>
-      <c r="CB4" s="39"/>
-      <c r="CC4" s="39"/>
-      <c r="CD4" s="39"/>
-      <c r="CE4" s="39"/>
-      <c r="CF4" s="39"/>
-      <c r="CG4" s="39" t="s">
+      <c r="CH4" s="28"/>
+      <c r="CI4" s="28"/>
+      <c r="CJ4" s="28"/>
+      <c r="CK4" s="28"/>
+      <c r="CL4" s="28"/>
+      <c r="CM4" s="28"/>
+      <c r="CN4" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="CH4" s="39"/>
-      <c r="CI4" s="39"/>
-      <c r="CJ4" s="39"/>
-      <c r="CK4" s="39"/>
-      <c r="CL4" s="39"/>
-      <c r="CM4" s="39"/>
-      <c r="CN4" s="39" t="s">
+      <c r="CO4" s="28"/>
+      <c r="CP4" s="28"/>
+      <c r="CQ4" s="28"/>
+      <c r="CR4" s="28"/>
+      <c r="CS4" s="28"/>
+      <c r="CT4" s="28"/>
+      <c r="CU4" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="CO4" s="39"/>
-      <c r="CP4" s="39"/>
-      <c r="CQ4" s="39"/>
-      <c r="CR4" s="39"/>
-      <c r="CS4" s="39"/>
-      <c r="CT4" s="39"/>
-      <c r="CU4" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="CV4" s="39"/>
-      <c r="CW4" s="39"/>
-      <c r="CX4" s="39"/>
-      <c r="CY4" s="39"/>
-      <c r="CZ4" s="39"/>
-      <c r="DA4" s="39"/>
+      <c r="CV4" s="28"/>
+      <c r="CW4" s="28"/>
+      <c r="CX4" s="28"/>
+      <c r="CY4" s="28"/>
+      <c r="CZ4" s="28"/>
+      <c r="DA4" s="28"/>
     </row>
     <row r="5" spans="2:105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="3">
         <v>1</v>
       </c>
@@ -1700,19 +1697,19 @@
       </c>
     </row>
     <row r="6" spans="2:105" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="21">
         <v>4</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="21">
         <v>1</v>
       </c>
-      <c r="E6" s="40">
-        <v>1</v>
-      </c>
-      <c r="F6" s="40">
+      <c r="E6" s="21">
+        <v>4</v>
+      </c>
+      <c r="F6" s="21">
         <v>1</v>
       </c>
       <c r="G6" s="6">
@@ -1720,19 +1717,19 @@
       </c>
     </row>
     <row r="7" spans="2:105" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="21">
         <v>5</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="21">
         <v>7</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="21">
         <v>5</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="21">
         <v>2</v>
       </c>
       <c r="G7" s="6">
@@ -1740,498 +1737,487 @@
       </c>
     </row>
     <row r="8" spans="2:105" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="40">
-        <v>5</v>
-      </c>
-      <c r="D8" s="40">
+      <c r="C8" s="21">
+        <v>8</v>
+      </c>
+      <c r="D8" s="21">
+        <v>4</v>
+      </c>
+      <c r="E8" s="21">
+        <v>10</v>
+      </c>
+      <c r="F8" s="21">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:105" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="21">
+        <v>17</v>
+      </c>
+      <c r="D9" s="21">
+        <v>2</v>
+      </c>
+      <c r="E9" s="21">
+        <v>17</v>
+      </c>
+      <c r="F9" s="21">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:105" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="21">
+        <v>19</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1</v>
+      </c>
+      <c r="E10" s="21">
+        <v>19</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:105" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="21">
+        <v>23</v>
+      </c>
+      <c r="D11" s="21">
+        <v>3</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:105" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="21">
+        <v>14</v>
+      </c>
+      <c r="D12" s="21">
+        <v>14</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:105" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="21">
+        <v>28</v>
+      </c>
+      <c r="D13" s="21">
         <v>7</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:105" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="21">
+        <v>28</v>
+      </c>
+      <c r="D14" s="21">
+        <v>7</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:105" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="21">
+        <v>35</v>
+      </c>
+      <c r="D15" s="21">
+        <v>40</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:105" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="25">
+        <v>35</v>
+      </c>
+      <c r="D16" s="25">
+        <v>7</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="25">
+        <v>42</v>
+      </c>
+      <c r="D17" s="25">
+        <v>7</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="25">
+        <v>49</v>
+      </c>
+      <c r="D18" s="25">
+        <v>7</v>
+      </c>
+      <c r="E18" s="21">
+        <v>0</v>
+      </c>
+      <c r="F18" s="21">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="25">
+        <v>56</v>
+      </c>
+      <c r="D19" s="25">
+        <v>7</v>
+      </c>
+      <c r="E19" s="21">
+        <v>0</v>
+      </c>
+      <c r="F19" s="21">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="25">
+        <v>63</v>
+      </c>
+      <c r="D20" s="25">
+        <v>7</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="25">
+        <v>70</v>
+      </c>
+      <c r="D21" s="25">
+        <v>7</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="25">
+        <v>77</v>
+      </c>
+      <c r="D22" s="25">
+        <v>7</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="25">
+        <v>84</v>
+      </c>
+      <c r="D23" s="25">
+        <v>7</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0</v>
+      </c>
+      <c r="F23" s="21">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="21">
+        <v>42</v>
+      </c>
+      <c r="D24" s="21">
+        <v>7</v>
+      </c>
+      <c r="E24" s="21">
+        <v>0</v>
+      </c>
+      <c r="F24" s="21">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="21">
+        <v>38</v>
+      </c>
+      <c r="D25" s="21">
+        <v>4</v>
+      </c>
+      <c r="E25" s="21">
+        <v>0</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="26">
+        <v>40</v>
+      </c>
+      <c r="D26" s="21">
+        <v>4</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="21">
+        <v>42</v>
+      </c>
+      <c r="D27" s="21">
+        <v>4</v>
+      </c>
+      <c r="E27" s="21">
+        <v>0</v>
+      </c>
+      <c r="F27" s="21">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="21">
+        <v>75</v>
+      </c>
+      <c r="D28" s="21">
         <v>2</v>
       </c>
-      <c r="F8" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:105" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="40">
-        <v>16</v>
-      </c>
-      <c r="D9" s="40">
-        <v>2</v>
-      </c>
-      <c r="E9" s="40">
-        <v>0</v>
-      </c>
-      <c r="F9" s="40">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:105" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="40">
-        <v>17</v>
-      </c>
-      <c r="D10" s="40">
-        <v>1</v>
-      </c>
-      <c r="E10" s="40">
-        <v>0</v>
-      </c>
-      <c r="F10" s="40">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:105" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="40">
-        <v>14</v>
-      </c>
-      <c r="D11" s="40">
-        <v>7</v>
-      </c>
-      <c r="E11" s="40">
-        <v>0</v>
-      </c>
-      <c r="F11" s="40">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:105" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="40">
-        <v>14</v>
-      </c>
-      <c r="D12" s="40">
-        <v>14</v>
-      </c>
-      <c r="E12" s="40">
-        <v>0</v>
-      </c>
-      <c r="F12" s="40">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:105" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="40">
-        <v>28</v>
-      </c>
-      <c r="D13" s="40">
-        <v>7</v>
-      </c>
-      <c r="E13" s="40">
-        <v>0</v>
-      </c>
-      <c r="F13" s="40">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:105" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="40">
-        <v>28</v>
-      </c>
-      <c r="D14" s="40">
-        <v>7</v>
-      </c>
-      <c r="E14" s="40">
-        <v>0</v>
-      </c>
-      <c r="F14" s="40">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:105" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="40">
-        <v>35</v>
-      </c>
-      <c r="D15" s="40">
-        <v>40</v>
-      </c>
-      <c r="E15" s="40">
-        <v>0</v>
-      </c>
-      <c r="F15" s="40">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:105" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="44">
-        <v>35</v>
-      </c>
-      <c r="D16" s="44">
-        <v>7</v>
-      </c>
-      <c r="E16" s="40">
-        <v>0</v>
-      </c>
-      <c r="F16" s="40">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="44">
-        <v>42</v>
-      </c>
-      <c r="D17" s="44">
-        <v>7</v>
-      </c>
-      <c r="E17" s="40">
-        <v>0</v>
-      </c>
-      <c r="F17" s="40">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="44">
-        <v>49</v>
-      </c>
-      <c r="D18" s="44">
-        <v>7</v>
-      </c>
-      <c r="E18" s="40">
-        <v>0</v>
-      </c>
-      <c r="F18" s="40">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="44">
-        <v>56</v>
-      </c>
-      <c r="D19" s="44">
-        <v>7</v>
-      </c>
-      <c r="E19" s="40">
-        <v>0</v>
-      </c>
-      <c r="F19" s="40">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="44">
-        <v>63</v>
-      </c>
-      <c r="D20" s="44">
-        <v>7</v>
-      </c>
-      <c r="E20" s="40">
-        <v>0</v>
-      </c>
-      <c r="F20" s="40">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="44">
-        <v>70</v>
-      </c>
-      <c r="D21" s="44">
-        <v>7</v>
-      </c>
-      <c r="E21" s="40">
-        <v>0</v>
-      </c>
-      <c r="F21" s="40">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="44">
+      <c r="E28" s="21">
+        <v>0</v>
+      </c>
+      <c r="F28" s="21">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="21">
+        <v>74</v>
+      </c>
+      <c r="D29" s="21">
+        <v>4</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="27">
         <v>77</v>
       </c>
-      <c r="D22" s="44">
-        <v>7</v>
-      </c>
-      <c r="E22" s="40">
-        <v>0</v>
-      </c>
-      <c r="F22" s="40">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="44">
-        <v>84</v>
-      </c>
-      <c r="D23" s="44">
-        <v>7</v>
-      </c>
-      <c r="E23" s="40">
-        <v>0</v>
-      </c>
-      <c r="F23" s="40">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="40">
-        <v>42</v>
-      </c>
-      <c r="D24" s="40">
-        <v>7</v>
-      </c>
-      <c r="E24" s="40">
-        <v>0</v>
-      </c>
-      <c r="F24" s="40">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="40">
-        <v>38</v>
-      </c>
-      <c r="D25" s="40">
+      <c r="D30" s="27">
         <v>4</v>
       </c>
-      <c r="E25" s="40">
-        <v>0</v>
-      </c>
-      <c r="F25" s="40">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:27" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="45">
-        <v>40</v>
-      </c>
-      <c r="D26" s="40">
-        <v>4</v>
-      </c>
-      <c r="E26" s="40">
-        <v>0</v>
-      </c>
-      <c r="F26" s="40">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:27" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="40">
-        <v>42</v>
-      </c>
-      <c r="D27" s="40">
-        <v>4</v>
-      </c>
-      <c r="E27" s="40">
-        <v>0</v>
-      </c>
-      <c r="F27" s="40">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="40">
-        <v>75</v>
-      </c>
-      <c r="D28" s="40">
-        <v>2</v>
-      </c>
-      <c r="E28" s="40">
-        <v>0</v>
-      </c>
-      <c r="F28" s="40">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="40">
-        <v>74</v>
-      </c>
-      <c r="D29" s="40">
-        <v>4</v>
-      </c>
-      <c r="E29" s="40">
-        <v>0</v>
-      </c>
-      <c r="F29" s="40">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:27" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="46">
-        <v>77</v>
-      </c>
-      <c r="D30" s="46">
-        <v>4</v>
-      </c>
-      <c r="E30" s="40">
-        <v>0</v>
-      </c>
-      <c r="F30" s="40">
+      <c r="E30" s="21">
+        <v>0</v>
+      </c>
+      <c r="F30" s="21">
         <v>0</v>
       </c>
       <c r="G30" s="6">
         <v>0</v>
       </c>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="36"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="CU4:DA4"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="CG4:CM4"/>
-    <mergeCell ref="CN4:CT4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
     <mergeCell ref="AI2:AP2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B5"/>
@@ -2247,6 +2233,17 @@
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="O4:U4"/>
     <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="CU4:DA4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="CG4:CM4"/>
+    <mergeCell ref="CN4:CT4"/>
   </mergeCells>
   <conditionalFormatting sqref="H6:DA30">
     <cfRule type="expression" dxfId="9" priority="1">

--- a/Documents/Gantt Chart.xlsx
+++ b/Documents/Gantt Chart.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Project Planner</t>
   </si>
@@ -267,6 +267,27 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Quality Requirements</t>
+  </si>
+  <si>
+    <t>Subject Management Module</t>
+  </si>
+  <si>
+    <t>Application Module</t>
+  </si>
+  <si>
+    <t>File Management</t>
+  </si>
+  <si>
+    <t>Appointment Module</t>
+  </si>
+  <si>
+    <t>User Management Module</t>
+  </si>
+  <si>
+    <t>Login Module</t>
   </si>
 </sst>
 </file>
@@ -669,62 +690,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1135,10 +1156,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:DA30"/>
+  <dimension ref="B1:DA37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1161,13 +1182,13 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="2:105" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1175,66 +1196,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="13"/>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="40"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
       <c r="P2" s="14"/>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="39"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="29" t="s">
+      <c r="V2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="42"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="41"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="43" t="s">
+      <c r="AA2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="45"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="44"/>
       <c r="AH2" s="17"/>
-      <c r="AI2" s="29" t="s">
+      <c r="AI2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
     </row>
     <row r="3" spans="2:105" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -1261,146 +1282,146 @@
       <c r="AA3" s="8"/>
     </row>
     <row r="4" spans="2:105" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="46" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="28" t="s">
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28" t="s">
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28" t="s">
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28" t="s">
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="28"/>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="28"/>
-      <c r="AO4" s="28"/>
-      <c r="AP4" s="28"/>
-      <c r="AQ4" s="28" t="s">
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AR4" s="28"/>
-      <c r="AS4" s="28"/>
-      <c r="AT4" s="28"/>
-      <c r="AU4" s="28"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="28"/>
-      <c r="AX4" s="28" t="s">
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="46"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="AY4" s="28"/>
-      <c r="AZ4" s="28"/>
-      <c r="BA4" s="28"/>
-      <c r="BB4" s="28"/>
-      <c r="BC4" s="28"/>
-      <c r="BD4" s="28"/>
-      <c r="BE4" s="28" t="s">
+      <c r="AY4" s="46"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="46"/>
+      <c r="BC4" s="46"/>
+      <c r="BD4" s="46"/>
+      <c r="BE4" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="BF4" s="28"/>
-      <c r="BG4" s="28"/>
-      <c r="BH4" s="28"/>
-      <c r="BI4" s="28"/>
-      <c r="BJ4" s="28"/>
-      <c r="BK4" s="28"/>
-      <c r="BL4" s="28" t="s">
+      <c r="BF4" s="46"/>
+      <c r="BG4" s="46"/>
+      <c r="BH4" s="46"/>
+      <c r="BI4" s="46"/>
+      <c r="BJ4" s="46"/>
+      <c r="BK4" s="46"/>
+      <c r="BL4" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="BM4" s="28"/>
-      <c r="BN4" s="28"/>
-      <c r="BO4" s="28"/>
-      <c r="BP4" s="28"/>
-      <c r="BQ4" s="28"/>
-      <c r="BR4" s="28"/>
-      <c r="BS4" s="28" t="s">
+      <c r="BM4" s="46"/>
+      <c r="BN4" s="46"/>
+      <c r="BO4" s="46"/>
+      <c r="BP4" s="46"/>
+      <c r="BQ4" s="46"/>
+      <c r="BR4" s="46"/>
+      <c r="BS4" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="BT4" s="28"/>
-      <c r="BU4" s="28"/>
-      <c r="BV4" s="28"/>
-      <c r="BW4" s="28"/>
-      <c r="BX4" s="28"/>
-      <c r="BY4" s="28"/>
-      <c r="BZ4" s="28" t="s">
+      <c r="BT4" s="46"/>
+      <c r="BU4" s="46"/>
+      <c r="BV4" s="46"/>
+      <c r="BW4" s="46"/>
+      <c r="BX4" s="46"/>
+      <c r="BY4" s="46"/>
+      <c r="BZ4" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="CA4" s="28"/>
-      <c r="CB4" s="28"/>
-      <c r="CC4" s="28"/>
-      <c r="CD4" s="28"/>
-      <c r="CE4" s="28"/>
-      <c r="CF4" s="28"/>
-      <c r="CG4" s="28" t="s">
+      <c r="CA4" s="46"/>
+      <c r="CB4" s="46"/>
+      <c r="CC4" s="46"/>
+      <c r="CD4" s="46"/>
+      <c r="CE4" s="46"/>
+      <c r="CF4" s="46"/>
+      <c r="CG4" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="CH4" s="28"/>
-      <c r="CI4" s="28"/>
-      <c r="CJ4" s="28"/>
-      <c r="CK4" s="28"/>
-      <c r="CL4" s="28"/>
-      <c r="CM4" s="28"/>
-      <c r="CN4" s="28" t="s">
+      <c r="CH4" s="46"/>
+      <c r="CI4" s="46"/>
+      <c r="CJ4" s="46"/>
+      <c r="CK4" s="46"/>
+      <c r="CL4" s="46"/>
+      <c r="CM4" s="46"/>
+      <c r="CN4" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="CO4" s="28"/>
-      <c r="CP4" s="28"/>
-      <c r="CQ4" s="28"/>
-      <c r="CR4" s="28"/>
-      <c r="CS4" s="28"/>
-      <c r="CT4" s="28"/>
-      <c r="CU4" s="28" t="s">
+      <c r="CO4" s="46"/>
+      <c r="CP4" s="46"/>
+      <c r="CQ4" s="46"/>
+      <c r="CR4" s="46"/>
+      <c r="CS4" s="46"/>
+      <c r="CT4" s="46"/>
+      <c r="CU4" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="CV4" s="28"/>
-      <c r="CW4" s="28"/>
-      <c r="CX4" s="28"/>
-      <c r="CY4" s="28"/>
-      <c r="CZ4" s="28"/>
-      <c r="DA4" s="28"/>
+      <c r="CV4" s="46"/>
+      <c r="CW4" s="46"/>
+      <c r="CX4" s="46"/>
+      <c r="CY4" s="46"/>
+      <c r="CZ4" s="46"/>
+      <c r="DA4" s="46"/>
     </row>
     <row r="5" spans="2:105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="33"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="3">
         <v>1</v>
       </c>
@@ -1807,58 +1828,58 @@
         <v>3</v>
       </c>
       <c r="E11" s="21">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F11" s="21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:105" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="21">
+        <v>31</v>
+      </c>
+      <c r="D12" s="21">
+        <v>2</v>
+      </c>
+      <c r="E12" s="21">
+        <v>31</v>
+      </c>
+      <c r="F12" s="21">
+        <v>4</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:105" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C13" s="21">
         <v>14</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D13" s="21">
         <v>14</v>
       </c>
-      <c r="E12" s="21">
-        <v>0</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:105" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
+      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:105" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" s="21">
-        <v>28</v>
-      </c>
-      <c r="D13" s="21">
-        <v>7</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:105" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
-        <v>20</v>
       </c>
       <c r="C14" s="21">
         <v>28</v>
@@ -1876,52 +1897,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:105" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:105" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="21">
+        <v>28</v>
+      </c>
+      <c r="D15" s="21">
+        <v>14</v>
+      </c>
+      <c r="E15" s="21">
+        <v>28</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:105" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C16" s="21">
         <v>35</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D16" s="21">
         <v>40</v>
       </c>
-      <c r="E15" s="21">
-        <v>0</v>
-      </c>
-      <c r="F15" s="21">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:105" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
+      <c r="E16" s="21">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C17" s="25">
         <v>35</v>
-      </c>
-      <c r="D16" s="25">
-        <v>7</v>
-      </c>
-      <c r="E16" s="21">
-        <v>0</v>
-      </c>
-      <c r="F16" s="21">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="25">
-        <v>42</v>
       </c>
       <c r="D17" s="25">
         <v>7</v>
@@ -1936,12 +1957,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="25">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D18" s="25">
         <v>7</v>
@@ -1956,12 +1977,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="25">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D19" s="25">
         <v>7</v>
@@ -1976,12 +1997,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C20" s="25">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D20" s="25">
         <v>7</v>
@@ -1996,12 +2017,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C21" s="25">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D21" s="25">
         <v>7</v>
@@ -2016,12 +2037,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="25">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D22" s="25">
         <v>7</v>
@@ -2036,12 +2057,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="25">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D23" s="25">
         <v>7</v>
@@ -2056,168 +2077,318 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
+    <row r="24" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="25">
+        <v>84</v>
+      </c>
+      <c r="D24" s="25">
+        <v>7</v>
+      </c>
+      <c r="E24" s="21">
+        <v>0</v>
+      </c>
+      <c r="F24" s="21">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C25" s="21">
         <v>42</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D25" s="21">
         <v>7</v>
       </c>
-      <c r="E24" s="21">
-        <v>0</v>
-      </c>
-      <c r="F24" s="21">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="22" t="s">
+      <c r="E25" s="21">
+        <v>0</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="21">
+        <v>38</v>
+      </c>
+      <c r="D26" s="21">
+        <v>10</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C27" s="21">
         <v>38</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D27" s="21">
+        <v>14</v>
+      </c>
+      <c r="E27" s="21">
+        <v>28</v>
+      </c>
+      <c r="F27" s="21">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="26">
+        <v>40</v>
+      </c>
+      <c r="D28" s="21">
+        <v>14</v>
+      </c>
+      <c r="E28" s="21">
+        <v>28</v>
+      </c>
+      <c r="F28" s="21">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="26">
+        <v>28</v>
+      </c>
+      <c r="D29" s="21">
+        <v>14</v>
+      </c>
+      <c r="E29" s="21">
+        <v>28</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="26">
+        <v>26</v>
+      </c>
+      <c r="D30" s="21">
+        <v>9</v>
+      </c>
+      <c r="E30" s="21">
+        <v>28</v>
+      </c>
+      <c r="F30" s="21">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="26">
+        <v>28</v>
+      </c>
+      <c r="D31" s="21">
+        <v>14</v>
+      </c>
+      <c r="E31" s="21">
+        <v>35</v>
+      </c>
+      <c r="F31" s="21">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="26">
+        <v>35</v>
+      </c>
+      <c r="D32" s="21">
+        <v>14</v>
+      </c>
+      <c r="E32" s="21">
+        <v>0</v>
+      </c>
+      <c r="F32" s="21">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="26">
+        <v>35</v>
+      </c>
+      <c r="D33" s="21">
+        <v>7</v>
+      </c>
+      <c r="E33" s="21">
+        <v>0</v>
+      </c>
+      <c r="F33" s="21">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="21">
+        <v>42</v>
+      </c>
+      <c r="D34" s="21">
+        <v>14</v>
+      </c>
+      <c r="E34" s="21">
+        <v>28</v>
+      </c>
+      <c r="F34" s="21">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="21">
+        <v>75</v>
+      </c>
+      <c r="D35" s="21">
+        <v>2</v>
+      </c>
+      <c r="E35" s="21">
+        <v>0</v>
+      </c>
+      <c r="F35" s="21">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="21">
+        <v>74</v>
+      </c>
+      <c r="D36" s="21">
         <v>4</v>
       </c>
-      <c r="E25" s="21">
-        <v>0</v>
-      </c>
-      <c r="F25" s="21">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:27" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="26">
-        <v>40</v>
-      </c>
-      <c r="D26" s="21">
+      <c r="E36" s="21">
+        <v>0</v>
+      </c>
+      <c r="F36" s="21">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="27">
+        <v>77</v>
+      </c>
+      <c r="D37" s="27">
         <v>4</v>
       </c>
-      <c r="E26" s="21">
-        <v>0</v>
-      </c>
-      <c r="F26" s="21">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:27" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="21">
-        <v>42</v>
-      </c>
-      <c r="D27" s="21">
-        <v>4</v>
-      </c>
-      <c r="E27" s="21">
-        <v>0</v>
-      </c>
-      <c r="F27" s="21">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="21">
-        <v>75</v>
-      </c>
-      <c r="D28" s="21">
-        <v>2</v>
-      </c>
-      <c r="E28" s="21">
-        <v>0</v>
-      </c>
-      <c r="F28" s="21">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="21">
-        <v>74</v>
-      </c>
-      <c r="D29" s="21">
-        <v>4</v>
-      </c>
-      <c r="E29" s="21">
-        <v>0</v>
-      </c>
-      <c r="F29" s="21">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:27" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="27">
-        <v>77</v>
-      </c>
-      <c r="D30" s="27">
-        <v>4</v>
-      </c>
-      <c r="E30" s="21">
-        <v>0</v>
-      </c>
-      <c r="F30" s="21">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
+      <c r="E37" s="21">
+        <v>0</v>
+      </c>
+      <c r="F37" s="21">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="CU4:DA4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="CG4:CM4"/>
+    <mergeCell ref="CN4:CT4"/>
     <mergeCell ref="AI2:AP2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B5"/>
@@ -2234,18 +2405,8 @@
     <mergeCell ref="O4:U4"/>
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="CU4:DA4"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="CG4:CM4"/>
-    <mergeCell ref="CN4:CT4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H6:DA30">
+  <conditionalFormatting sqref="H6:DA37">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -2271,7 +2432,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:BO31">
+  <conditionalFormatting sqref="B38:BO38">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>

--- a/Documents/Gantt Chart.xlsx
+++ b/Documents/Gantt Chart.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Project Planner</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>Login Module</t>
+  </si>
+  <si>
+    <t>Sequence Diagram</t>
   </si>
 </sst>
 </file>
@@ -690,6 +693,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -743,9 +749,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1156,10 +1159,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:DA37"/>
+  <dimension ref="B1:DA38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1182,13 +1185,13 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="2:105" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1196,66 +1199,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="13"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="14"/>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="39"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="28" t="s">
+      <c r="V2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="41"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="42"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="42" t="s">
+      <c r="AA2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="45"/>
       <c r="AH2" s="17"/>
-      <c r="AI2" s="28" t="s">
+      <c r="AI2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
     </row>
     <row r="3" spans="2:105" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="36" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -1282,146 +1285,146 @@
       <c r="AA3" s="8"/>
     </row>
     <row r="4" spans="2:105" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="45" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="46" t="s">
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46" t="s">
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46" t="s">
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46" t="s">
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46" t="s">
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="28"/>
+      <c r="AP4" s="28"/>
+      <c r="AQ4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="46" t="s">
+      <c r="AR4" s="28"/>
+      <c r="AS4" s="28"/>
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="AY4" s="46"/>
-      <c r="AZ4" s="46"/>
-      <c r="BA4" s="46"/>
-      <c r="BB4" s="46"/>
-      <c r="BC4" s="46"/>
-      <c r="BD4" s="46"/>
-      <c r="BE4" s="46" t="s">
+      <c r="AY4" s="28"/>
+      <c r="AZ4" s="28"/>
+      <c r="BA4" s="28"/>
+      <c r="BB4" s="28"/>
+      <c r="BC4" s="28"/>
+      <c r="BD4" s="28"/>
+      <c r="BE4" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="BF4" s="46"/>
-      <c r="BG4" s="46"/>
-      <c r="BH4" s="46"/>
-      <c r="BI4" s="46"/>
-      <c r="BJ4" s="46"/>
-      <c r="BK4" s="46"/>
-      <c r="BL4" s="46" t="s">
+      <c r="BF4" s="28"/>
+      <c r="BG4" s="28"/>
+      <c r="BH4" s="28"/>
+      <c r="BI4" s="28"/>
+      <c r="BJ4" s="28"/>
+      <c r="BK4" s="28"/>
+      <c r="BL4" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="BM4" s="46"/>
-      <c r="BN4" s="46"/>
-      <c r="BO4" s="46"/>
-      <c r="BP4" s="46"/>
-      <c r="BQ4" s="46"/>
-      <c r="BR4" s="46"/>
-      <c r="BS4" s="46" t="s">
+      <c r="BM4" s="28"/>
+      <c r="BN4" s="28"/>
+      <c r="BO4" s="28"/>
+      <c r="BP4" s="28"/>
+      <c r="BQ4" s="28"/>
+      <c r="BR4" s="28"/>
+      <c r="BS4" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="BT4" s="46"/>
-      <c r="BU4" s="46"/>
-      <c r="BV4" s="46"/>
-      <c r="BW4" s="46"/>
-      <c r="BX4" s="46"/>
-      <c r="BY4" s="46"/>
-      <c r="BZ4" s="46" t="s">
+      <c r="BT4" s="28"/>
+      <c r="BU4" s="28"/>
+      <c r="BV4" s="28"/>
+      <c r="BW4" s="28"/>
+      <c r="BX4" s="28"/>
+      <c r="BY4" s="28"/>
+      <c r="BZ4" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="CA4" s="46"/>
-      <c r="CB4" s="46"/>
-      <c r="CC4" s="46"/>
-      <c r="CD4" s="46"/>
-      <c r="CE4" s="46"/>
-      <c r="CF4" s="46"/>
-      <c r="CG4" s="46" t="s">
+      <c r="CA4" s="28"/>
+      <c r="CB4" s="28"/>
+      <c r="CC4" s="28"/>
+      <c r="CD4" s="28"/>
+      <c r="CE4" s="28"/>
+      <c r="CF4" s="28"/>
+      <c r="CG4" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="CH4" s="46"/>
-      <c r="CI4" s="46"/>
-      <c r="CJ4" s="46"/>
-      <c r="CK4" s="46"/>
-      <c r="CL4" s="46"/>
-      <c r="CM4" s="46"/>
-      <c r="CN4" s="46" t="s">
+      <c r="CH4" s="28"/>
+      <c r="CI4" s="28"/>
+      <c r="CJ4" s="28"/>
+      <c r="CK4" s="28"/>
+      <c r="CL4" s="28"/>
+      <c r="CM4" s="28"/>
+      <c r="CN4" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="CO4" s="46"/>
-      <c r="CP4" s="46"/>
-      <c r="CQ4" s="46"/>
-      <c r="CR4" s="46"/>
-      <c r="CS4" s="46"/>
-      <c r="CT4" s="46"/>
-      <c r="CU4" s="46" t="s">
+      <c r="CO4" s="28"/>
+      <c r="CP4" s="28"/>
+      <c r="CQ4" s="28"/>
+      <c r="CR4" s="28"/>
+      <c r="CS4" s="28"/>
+      <c r="CT4" s="28"/>
+      <c r="CU4" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="CV4" s="46"/>
-      <c r="CW4" s="46"/>
-      <c r="CX4" s="46"/>
-      <c r="CY4" s="46"/>
-      <c r="CZ4" s="46"/>
-      <c r="DA4" s="46"/>
+      <c r="CV4" s="28"/>
+      <c r="CW4" s="28"/>
+      <c r="CX4" s="28"/>
+      <c r="CY4" s="28"/>
+      <c r="CZ4" s="28"/>
+      <c r="DA4" s="28"/>
     </row>
     <row r="5" spans="2:105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="3">
         <v>1</v>
       </c>
@@ -1897,72 +1900,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:105" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:105" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C15" s="21">
         <v>28</v>
       </c>
       <c r="D15" s="21">
+        <v>9</v>
+      </c>
+      <c r="E15" s="21">
+        <v>36</v>
+      </c>
+      <c r="F15" s="21">
+        <v>8</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:105" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="21">
+        <v>28</v>
+      </c>
+      <c r="D16" s="21">
         <v>14</v>
       </c>
-      <c r="E15" s="21">
-        <v>28</v>
-      </c>
-      <c r="F15" s="21">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:105" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
+      <c r="E16" s="21">
+        <v>37</v>
+      </c>
+      <c r="F16" s="21">
+        <v>7</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C17" s="21">
         <v>35</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D17" s="21">
         <v>40</v>
       </c>
-      <c r="E16" s="21">
-        <v>0</v>
-      </c>
-      <c r="F16" s="21">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
+      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C18" s="25">
         <v>35</v>
-      </c>
-      <c r="D17" s="25">
-        <v>7</v>
-      </c>
-      <c r="E17" s="21">
-        <v>0</v>
-      </c>
-      <c r="F17" s="21">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="25">
-        <v>42</v>
       </c>
       <c r="D18" s="25">
         <v>7</v>
@@ -1977,12 +1980,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="25">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D19" s="25">
         <v>7</v>
@@ -1999,10 +2002,10 @@
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="25">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D20" s="25">
         <v>7</v>
@@ -2019,10 +2022,10 @@
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C21" s="25">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D21" s="25">
         <v>7</v>
@@ -2037,12 +2040,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C22" s="25">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D22" s="25">
         <v>7</v>
@@ -2057,12 +2060,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="25">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D23" s="25">
         <v>7</v>
@@ -2077,12 +2080,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="25">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D24" s="25">
         <v>7</v>
@@ -2098,13 +2101,13 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="21">
-        <v>42</v>
-      </c>
-      <c r="D25" s="21">
+      <c r="B25" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="25">
+        <v>84</v>
+      </c>
+      <c r="D25" s="25">
         <v>7</v>
       </c>
       <c r="E25" s="21">
@@ -2119,36 +2122,36 @@
     </row>
     <row r="26" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="21">
+        <v>42</v>
+      </c>
+      <c r="D26" s="21">
+        <v>7</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="C26" s="21">
-        <v>38</v>
-      </c>
-      <c r="D26" s="21">
-        <v>10</v>
-      </c>
-      <c r="E26" s="21">
-        <v>0</v>
-      </c>
-      <c r="F26" s="21">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="22" t="s">
-        <v>22</v>
       </c>
       <c r="C27" s="21">
         <v>38</v>
       </c>
       <c r="D27" s="21">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E27" s="21">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F27" s="21">
         <v>0</v>
@@ -2157,12 +2160,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="26">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="C28" s="21">
+        <v>38</v>
       </c>
       <c r="D28" s="21">
         <v>14</v>
@@ -2179,10 +2182,10 @@
     </row>
     <row r="29" spans="2:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C29" s="26">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D29" s="21">
         <v>14</v>
@@ -2199,13 +2202,13 @@
     </row>
     <row r="30" spans="2:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="26">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D30" s="21">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E30" s="21">
         <v>28</v>
@@ -2214,101 +2217,101 @@
         <v>0</v>
       </c>
       <c r="G30" s="6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="26">
+        <v>26</v>
+      </c>
+      <c r="D31" s="21">
+        <v>9</v>
+      </c>
+      <c r="E31" s="21">
         <v>28</v>
       </c>
-      <c r="D31" s="21">
-        <v>14</v>
-      </c>
-      <c r="E31" s="21">
-        <v>35</v>
-      </c>
       <c r="F31" s="21">
         <v>0</v>
       </c>
       <c r="G31" s="6">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" s="26">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D32" s="21">
         <v>14</v>
       </c>
       <c r="E32" s="21">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F32" s="21">
         <v>0</v>
       </c>
       <c r="G32" s="6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="33" spans="2:27" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" s="26">
         <v>35</v>
       </c>
       <c r="D33" s="21">
+        <v>14</v>
+      </c>
+      <c r="E33" s="21">
+        <v>0</v>
+      </c>
+      <c r="F33" s="21">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="26">
+        <v>35</v>
+      </c>
+      <c r="D34" s="21">
         <v>7</v>
       </c>
-      <c r="E33" s="21">
-        <v>0</v>
-      </c>
-      <c r="F33" s="21">
-        <v>0</v>
-      </c>
-      <c r="G33" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="22" t="s">
+      <c r="E34" s="21">
+        <v>0</v>
+      </c>
+      <c r="F34" s="21">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C35" s="21">
         <v>42</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D35" s="21">
         <v>14</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E35" s="21">
         <v>28</v>
-      </c>
-      <c r="F34" s="21">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="21">
-        <v>75</v>
-      </c>
-      <c r="D35" s="21">
-        <v>2</v>
-      </c>
-      <c r="E35" s="21">
-        <v>0</v>
       </c>
       <c r="F35" s="21">
         <v>0</v>
@@ -2319,76 +2322,86 @@
     </row>
     <row r="36" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="21">
+        <v>75</v>
+      </c>
+      <c r="D36" s="21">
+        <v>2</v>
+      </c>
+      <c r="E36" s="21">
+        <v>0</v>
+      </c>
+      <c r="F36" s="21">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C37" s="21">
         <v>74</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D37" s="21">
         <v>4</v>
       </c>
-      <c r="E36" s="21">
-        <v>0</v>
-      </c>
-      <c r="F36" s="21">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="24" t="s">
+      <c r="E37" s="21">
+        <v>0</v>
+      </c>
+      <c r="F37" s="21">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C38" s="27">
         <v>77</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D38" s="27">
         <v>4</v>
       </c>
-      <c r="E37" s="21">
-        <v>0</v>
-      </c>
-      <c r="F37" s="21">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6">
-        <v>0</v>
-      </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
+      <c r="E38" s="21">
+        <v>0</v>
+      </c>
+      <c r="F38" s="21">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="CU4:DA4"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="CG4:CM4"/>
-    <mergeCell ref="CN4:CT4"/>
     <mergeCell ref="AI2:AP2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B5"/>
@@ -2405,8 +2418,18 @@
     <mergeCell ref="O4:U4"/>
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="CU4:DA4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="CG4:CM4"/>
+    <mergeCell ref="CN4:CT4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H6:DA37">
+  <conditionalFormatting sqref="H6:DA38">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -2432,7 +2455,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:BO38">
+  <conditionalFormatting sqref="B39:BO39">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
